--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -47,7 +47,7 @@
     <x:t>ProcessCycleCode</x:t>
   </x:si>
   <x:si>
-    <x:t>556</x:t>
+    <x:t>568</x:t>
   </x:si>
   <x:si>
     <x:t>ProcessKey</x:t>
